--- a/stage2_excels/GA/GA_merge_data.xlsx
+++ b/stage2_excels/GA/GA_merge_data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -561,58 +561,58 @@
         <v>64335.33303459732</v>
       </c>
       <c r="E2" t="n">
-        <v>19.27071904293765</v>
+        <v>36.64926884488347</v>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>971.9473478567189</v>
+        <v>1940.020030440648</v>
       </c>
       <c r="H2" t="n">
-        <v>31.17607011566273</v>
+        <v>44.0456584743678</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>189.2280313128223</v>
+        <v>64.12856094794377</v>
       </c>
       <c r="L2" t="n">
-        <v>211</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
-        <v>4222.97723048097</v>
+        <v>1537.928746576491</v>
       </c>
       <c r="N2" t="n">
-        <v>64.98443837166688</v>
+        <v>39.21643464896434</v>
       </c>
       <c r="O2" t="n">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="P2" t="n">
-        <v>247</v>
+        <v>84</v>
       </c>
       <c r="Q2" t="n">
-        <v>104.203611307172</v>
+        <v>103.2330961672116</v>
       </c>
       <c r="R2" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S2" t="n">
-        <v>1232.32848913406</v>
+        <v>1230.037409172048</v>
       </c>
       <c r="T2" t="n">
-        <v>35.10453658908006</v>
+        <v>35.07188915886978</v>
       </c>
       <c r="U2" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V2" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -631,58 +631,58 @@
         <v>67569.45206929816</v>
       </c>
       <c r="E3" t="n">
-        <v>17.5171468021</v>
+        <v>36.98160314959635</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>719.6619677702525</v>
+        <v>2019.088599135416</v>
       </c>
       <c r="H3" t="n">
-        <v>26.82651613180982</v>
+        <v>44.93426976301514</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="K3" t="n">
-        <v>193.0244991864421</v>
+        <v>60.59697752166223</v>
       </c>
       <c r="L3" t="n">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="M3" t="n">
-        <v>4019.773497480204</v>
+        <v>1877.578347736446</v>
       </c>
       <c r="N3" t="n">
-        <v>63.40168371171387</v>
+        <v>43.33103215637086</v>
       </c>
       <c r="O3" t="n">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="P3" t="n">
-        <v>248</v>
+        <v>90</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.13021507315938</v>
+        <v>96.31100073198787</v>
       </c>
       <c r="R3" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S3" t="n">
-        <v>1548.667022169256</v>
+        <v>1541.72875695106</v>
       </c>
       <c r="T3" t="n">
-        <v>39.35310689347482</v>
+        <v>39.26485396574219</v>
       </c>
       <c r="U3" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V3" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4">
@@ -701,52 +701,52 @@
         <v>53435.47798676724</v>
       </c>
       <c r="E4" t="n">
-        <v>17.93650663837781</v>
+        <v>31.40964627701324</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4" t="n">
-        <v>519.5055301002527</v>
+        <v>1586.513805227818</v>
       </c>
       <c r="H4" t="n">
-        <v>22.79266395356744</v>
+        <v>39.83106583092923</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="K4" t="n">
-        <v>198.4217063073301</v>
+        <v>63.75022846987183</v>
       </c>
       <c r="L4" t="n">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="M4" t="n">
-        <v>3313.943776166132</v>
+        <v>1310.14887418834</v>
       </c>
       <c r="N4" t="n">
-        <v>57.56686352552249</v>
+        <v>36.1959787018992</v>
       </c>
       <c r="O4" t="n">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="P4" t="n">
-        <v>246</v>
+        <v>83</v>
       </c>
       <c r="Q4" t="n">
-        <v>101.5493288975565</v>
+        <v>100.8759229092578</v>
       </c>
       <c r="R4" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S4" t="n">
-        <v>1155.040362346455</v>
+        <v>1181.935016714488</v>
       </c>
       <c r="T4" t="n">
-        <v>33.98588475156201</v>
+        <v>34.3792817946287</v>
       </c>
       <c r="U4" t="n">
         <v>77</v>
@@ -771,55 +771,55 @@
         <v>39805.06480009782</v>
       </c>
       <c r="E5" t="n">
-        <v>15.58966136201623</v>
+        <v>28.34370426242938</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>371.7869272804638</v>
+        <v>1783.681706034073</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28177707786458</v>
+        <v>42.23365608178</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="K5" t="n">
-        <v>215.2450103436927</v>
+        <v>62.751584921492</v>
       </c>
       <c r="L5" t="n">
-        <v>241</v>
+        <v>54</v>
       </c>
       <c r="M5" t="n">
-        <v>2806.48408147097</v>
+        <v>1535.995220872609</v>
       </c>
       <c r="N5" t="n">
-        <v>52.97625960249525</v>
+        <v>39.19177491352757</v>
       </c>
       <c r="O5" t="n">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="P5" t="n">
-        <v>252</v>
+        <v>84</v>
       </c>
       <c r="Q5" t="n">
-        <v>112.460150559796</v>
+        <v>112.1165877770597</v>
       </c>
       <c r="R5" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S5" t="n">
-        <v>1450.098166620129</v>
+        <v>1457.201530418189</v>
       </c>
       <c r="T5" t="n">
-        <v>38.08015449837525</v>
+        <v>38.17330913633489</v>
       </c>
       <c r="U5" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V5" t="n">
         <v>139</v>
@@ -841,52 +841,52 @@
         <v>53494.24525466777</v>
       </c>
       <c r="E6" t="n">
-        <v>16.5726081321108</v>
+        <v>30.18910104026016</v>
       </c>
       <c r="F6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>293.1326637432422</v>
+        <v>1261.451403948162</v>
       </c>
       <c r="H6" t="n">
-        <v>17.12111747939492</v>
+        <v>35.51691715152318</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="K6" t="n">
-        <v>202.6754196001087</v>
+        <v>70.79934092719938</v>
       </c>
       <c r="L6" t="n">
-        <v>211</v>
+        <v>58</v>
       </c>
       <c r="M6" t="n">
-        <v>2310.173859884042</v>
+        <v>1644.284158553749</v>
       </c>
       <c r="N6" t="n">
-        <v>48.0642680156896</v>
+        <v>40.54977384096919</v>
       </c>
       <c r="O6" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="P6" t="n">
-        <v>245</v>
+        <v>93</v>
       </c>
       <c r="Q6" t="n">
-        <v>110.4911276410453</v>
+        <v>110.2905246867356</v>
       </c>
       <c r="R6" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S6" t="n">
-        <v>1010.486421372771</v>
+        <v>997.8186539989117</v>
       </c>
       <c r="T6" t="n">
-        <v>31.78814907119902</v>
+        <v>31.58826766378479</v>
       </c>
       <c r="U6" t="n">
         <v>84</v>
@@ -911,52 +911,52 @@
         <v>48058.73790726571</v>
       </c>
       <c r="E7" t="n">
-        <v>16.56772784335959</v>
+        <v>48.41423656448838</v>
       </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G7" t="n">
-        <v>249.039376937857</v>
+        <v>1244.955975479365</v>
       </c>
       <c r="H7" t="n">
-        <v>15.78098149475681</v>
+        <v>35.28393367354843</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J7" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="K7" t="n">
-        <v>163.6253633272852</v>
+        <v>83.62255974514075</v>
       </c>
       <c r="L7" t="n">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
-        <v>3270.75765148557</v>
+        <v>1010.591421981839</v>
       </c>
       <c r="N7" t="n">
-        <v>57.19053812900846</v>
+        <v>31.78980059676121</v>
       </c>
       <c r="O7" t="n">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="P7" t="n">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.0573590450321</v>
+        <v>118.9995651967485</v>
       </c>
       <c r="R7" t="n">
         <v>121</v>
       </c>
       <c r="S7" t="n">
-        <v>697.5604623419914</v>
+        <v>694.8287897834836</v>
       </c>
       <c r="T7" t="n">
-        <v>26.41136994443854</v>
+        <v>26.35960526607869</v>
       </c>
       <c r="U7" t="n">
         <v>103</v>
@@ -981,58 +981,58 @@
         <v>37467.51717366891</v>
       </c>
       <c r="E8" t="n">
-        <v>19.48037654422249</v>
+        <v>71.34704990812399</v>
       </c>
       <c r="F8" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G8" t="n">
-        <v>86.95321253251126</v>
+        <v>2086.268598302337</v>
       </c>
       <c r="H8" t="n">
-        <v>9.324870644277659</v>
+        <v>45.67568935771344</v>
       </c>
       <c r="I8" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="J8" t="n">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="K8" t="n">
-        <v>156.2136057429055</v>
+        <v>135.2719934507976</v>
       </c>
       <c r="L8" t="n">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="M8" t="n">
-        <v>3421.615273909295</v>
+        <v>2351.521225606304</v>
       </c>
       <c r="N8" t="n">
-        <v>58.49457473910974</v>
+        <v>48.49248627990014</v>
       </c>
       <c r="O8" t="n">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="P8" t="n">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="Q8" t="n">
-        <v>165.850800173118</v>
+        <v>165.3245837458151</v>
       </c>
       <c r="R8" t="n">
         <v>166</v>
       </c>
       <c r="S8" t="n">
-        <v>1215.332720781578</v>
+        <v>1168.85601471525</v>
       </c>
       <c r="T8" t="n">
-        <v>34.86162246341352</v>
+        <v>34.18853630554035</v>
       </c>
       <c r="U8" t="n">
         <v>138</v>
       </c>
       <c r="V8" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9">
@@ -1051,58 +1051,58 @@
         <v>48609.41199331333</v>
       </c>
       <c r="E9" t="n">
-        <v>19.71840119087371</v>
+        <v>67.01754672413981</v>
       </c>
       <c r="F9" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G9" t="n">
-        <v>161.3177203383055</v>
+        <v>1268.413237486864</v>
       </c>
       <c r="H9" t="n">
-        <v>12.70109130501413</v>
+        <v>35.61478958925441</v>
       </c>
       <c r="I9" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="J9" t="n">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="K9" t="n">
-        <v>150.3688522930346</v>
+        <v>124.8355408471538</v>
       </c>
       <c r="L9" t="n">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="M9" t="n">
-        <v>2934.815720601132</v>
+        <v>1610.465177373173</v>
       </c>
       <c r="N9" t="n">
-        <v>54.17393949678326</v>
+        <v>40.13060150774185</v>
       </c>
       <c r="O9" t="n">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="P9" t="n">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="Q9" t="n">
-        <v>151.8557575210861</v>
+        <v>151.0507745353039</v>
       </c>
       <c r="R9" t="n">
         <v>149</v>
       </c>
       <c r="S9" t="n">
-        <v>876.3431329863929</v>
+        <v>802.5461191937194</v>
       </c>
       <c r="T9" t="n">
-        <v>29.60309330097774</v>
+        <v>28.32924494570442</v>
       </c>
       <c r="U9" t="n">
         <v>133</v>
       </c>
       <c r="V9" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10">
@@ -1121,52 +1121,52 @@
         <v>41741.65352724223</v>
       </c>
       <c r="E10" t="n">
-        <v>19.87375633385385</v>
+        <v>73.07370108896272</v>
       </c>
       <c r="F10" t="n">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="G10" t="n">
-        <v>46.71984336682481</v>
+        <v>1705.030238599836</v>
       </c>
       <c r="H10" t="n">
-        <v>6.835191538415351</v>
+        <v>41.29201180131378</v>
       </c>
       <c r="I10" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="J10" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6709700055588</v>
+        <v>143.6389413790207</v>
       </c>
       <c r="L10" t="n">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="M10" t="n">
-        <v>3014.543337902431</v>
+        <v>2036.910929609144</v>
       </c>
       <c r="N10" t="n">
-        <v>54.90485714308372</v>
+        <v>45.13214962318042</v>
       </c>
       <c r="O10" t="n">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="P10" t="n">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="Q10" t="n">
-        <v>174.6049865435484</v>
+        <v>173.7646306135848</v>
       </c>
       <c r="R10" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S10" t="n">
-        <v>1008.993571163944</v>
+        <v>945.9410729975855</v>
       </c>
       <c r="T10" t="n">
-        <v>31.76465915390788</v>
+        <v>30.75615504248841</v>
       </c>
       <c r="U10" t="n">
         <v>148</v>
@@ -1191,58 +1191,58 @@
         <v>30560.79027951475</v>
       </c>
       <c r="E11" t="n">
-        <v>19.80826826370176</v>
+        <v>79.67840908765427</v>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="G11" t="n">
-        <v>37.66458789841376</v>
+        <v>1370.681993439588</v>
       </c>
       <c r="H11" t="n">
-        <v>6.137148189380289</v>
+        <v>37.02272266378566</v>
       </c>
       <c r="I11" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="J11" t="n">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="K11" t="n">
-        <v>146.5216380363879</v>
+        <v>145.6937341062375</v>
       </c>
       <c r="L11" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
-        <v>2946.423773538274</v>
+        <v>1695.959772724907</v>
       </c>
       <c r="N11" t="n">
-        <v>54.28097063924221</v>
+        <v>41.18203215875713</v>
       </c>
       <c r="O11" t="n">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="P11" t="n">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q11" t="n">
-        <v>173.3785369292772</v>
+        <v>172.7312038975935</v>
       </c>
       <c r="R11" t="n">
         <v>175</v>
       </c>
       <c r="S11" t="n">
-        <v>818.529128847607</v>
+        <v>767.9562703267503</v>
       </c>
       <c r="T11" t="n">
-        <v>28.60994807488484</v>
+        <v>27.71202393053871</v>
       </c>
       <c r="U11" t="n">
         <v>151</v>
       </c>
       <c r="V11" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12">
@@ -1261,58 +1261,58 @@
         <v>19022.53476942382</v>
       </c>
       <c r="E12" t="n">
-        <v>19.34267189297348</v>
+        <v>106.2437632897438</v>
       </c>
       <c r="F12" t="n">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="G12" t="n">
-        <v>150.254744923317</v>
+        <v>1695.231399543523</v>
       </c>
       <c r="H12" t="n">
-        <v>12.25784422006239</v>
+        <v>41.17318787200626</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="J12" t="n">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="K12" t="n">
-        <v>122.9750616910187</v>
+        <v>161.4485231014276</v>
       </c>
       <c r="L12" t="n">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="M12" t="n">
-        <v>3579.162578757362</v>
+        <v>1370.140338278065</v>
       </c>
       <c r="N12" t="n">
-        <v>59.82610282107102</v>
+        <v>37.01540676904774</v>
       </c>
       <c r="O12" t="n">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="P12" t="n">
-        <v>143.5</v>
+        <v>186</v>
       </c>
       <c r="Q12" t="n">
-        <v>187.9701025733652</v>
+        <v>187.4033657182512</v>
       </c>
       <c r="R12" t="n">
         <v>189</v>
       </c>
       <c r="S12" t="n">
-        <v>725.0698760620312</v>
+        <v>684.1649818749105</v>
       </c>
       <c r="T12" t="n">
-        <v>26.92712157030586</v>
+        <v>26.15654759089797</v>
       </c>
       <c r="U12" t="n">
         <v>167</v>
       </c>
       <c r="V12" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13">
@@ -1331,52 +1331,52 @@
         <v>25790.66293698846</v>
       </c>
       <c r="E13" t="n">
-        <v>18.63590200790759</v>
+        <v>97.4463776297364</v>
       </c>
       <c r="F13" t="n">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="G13" t="n">
-        <v>54.36149937567289</v>
+        <v>1637.068454657056</v>
       </c>
       <c r="H13" t="n">
-        <v>7.373025116983726</v>
+        <v>40.46070259717514</v>
       </c>
       <c r="I13" t="n">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="J13" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>127.3815966899267</v>
+        <v>153.3046095897539</v>
       </c>
       <c r="L13" t="n">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="M13" t="n">
-        <v>3381.377679068292</v>
+        <v>1107.954481534797</v>
       </c>
       <c r="N13" t="n">
-        <v>58.14961460808053</v>
+        <v>33.28595021228622</v>
       </c>
       <c r="O13" t="n">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P13" t="n">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="Q13" t="n">
-        <v>180.7742999563899</v>
+        <v>180.5361659618057</v>
       </c>
       <c r="R13" t="n">
         <v>183</v>
       </c>
       <c r="S13" t="n">
-        <v>631.4132003205291</v>
+        <v>614.7888944552305</v>
       </c>
       <c r="T13" t="n">
-        <v>25.12793665067884</v>
+        <v>24.79493687137014</v>
       </c>
       <c r="U13" t="n">
         <v>159</v>
@@ -1401,52 +1401,52 @@
         <v>1977.981022921952</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28416839583215</v>
+        <v>109.1422587181779</v>
       </c>
       <c r="F14" t="n">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="G14" t="n">
-        <v>36.75241775013461</v>
+        <v>955.4905145077881</v>
       </c>
       <c r="H14" t="n">
-        <v>6.062377235881533</v>
+        <v>30.91100960026683</v>
       </c>
       <c r="I14" t="n">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J14" t="n">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="K14" t="n">
-        <v>110.7528711876913</v>
+        <v>162.3089715365385</v>
       </c>
       <c r="L14" t="n">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="M14" t="n">
-        <v>2063.742260387402</v>
+        <v>1095.358796950058</v>
       </c>
       <c r="N14" t="n">
-        <v>45.42843008939889</v>
+        <v>33.09620517446159</v>
       </c>
       <c r="O14" t="n">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="P14" t="n">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.284881543652</v>
+        <v>186.1297893864603</v>
       </c>
       <c r="R14" t="n">
         <v>183</v>
       </c>
       <c r="S14" t="n">
-        <v>618.8035108774536</v>
+        <v>607.3208582497891</v>
       </c>
       <c r="T14" t="n">
-        <v>24.87576151351861</v>
+        <v>24.64388074654211</v>
       </c>
       <c r="U14" t="n">
         <v>169</v>
@@ -1471,52 +1471,52 @@
         <v>1103.080602430784</v>
       </c>
       <c r="E15" t="n">
-        <v>19.00029351188221</v>
+        <v>108.9583480979677</v>
       </c>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="G15" t="n">
-        <v>108.8732579710028</v>
+        <v>1142.18104781838</v>
       </c>
       <c r="H15" t="n">
-        <v>10.43423490108416</v>
+        <v>33.79616912933151</v>
       </c>
       <c r="I15" t="n">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="J15" t="n">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="K15" t="n">
-        <v>107.5727261835228</v>
+        <v>160.6152486495075</v>
       </c>
       <c r="L15" t="n">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="M15" t="n">
-        <v>2771.703268259966</v>
+        <v>1299.46854568015</v>
       </c>
       <c r="N15" t="n">
-        <v>52.64696827225634</v>
+        <v>36.04814205586953</v>
       </c>
       <c r="O15" t="n">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="P15" t="n">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="Q15" t="n">
-        <v>182.9977773422868</v>
+        <v>182.5258793265546</v>
       </c>
       <c r="R15" t="n">
         <v>181</v>
       </c>
       <c r="S15" t="n">
-        <v>766.2877895433348</v>
+        <v>727.1762727913598</v>
       </c>
       <c r="T15" t="n">
-        <v>27.68190364738912</v>
+        <v>26.96620612528503</v>
       </c>
       <c r="U15" t="n">
         <v>161</v>
@@ -1541,58 +1541,58 @@
         <v>868.7117259558906</v>
       </c>
       <c r="E16" t="n">
-        <v>21.89172570021868</v>
+        <v>99.25805912669196</v>
       </c>
       <c r="F16" t="n">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="G16" t="n">
-        <v>40.29859107059104</v>
+        <v>1118.130525609462</v>
       </c>
       <c r="H16" t="n">
-        <v>6.348117127982993</v>
+        <v>33.43845878041424</v>
       </c>
       <c r="I16" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="J16" t="n">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="K16" t="n">
-        <v>123.0579405811296</v>
+        <v>166.3029918063791</v>
       </c>
       <c r="L16" t="n">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="M16" t="n">
-        <v>3457.827893297157</v>
+        <v>1515.634436160181</v>
       </c>
       <c r="N16" t="n">
-        <v>58.80329831988301</v>
+        <v>38.93114994654257</v>
       </c>
       <c r="O16" t="n">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="P16" t="n">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="Q16" t="n">
-        <v>183.3208807295479</v>
+        <v>182.1223623306565</v>
       </c>
       <c r="R16" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S16" t="n">
-        <v>953.5300553615773</v>
+        <v>856.3940150065641</v>
       </c>
       <c r="T16" t="n">
-        <v>30.87928197613373</v>
+        <v>29.26421047980902</v>
       </c>
       <c r="U16" t="n">
         <v>158</v>
       </c>
       <c r="V16" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17">
@@ -1611,52 +1611,52 @@
         <v>114.0569900367095</v>
       </c>
       <c r="E17" t="n">
-        <v>18.08738381853384</v>
+        <v>109.9472654119368</v>
       </c>
       <c r="F17" t="n">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="G17" t="n">
-        <v>55.68682574782899</v>
+        <v>1881.665710285888</v>
       </c>
       <c r="H17" t="n">
-        <v>7.462360601567643</v>
+        <v>43.37817089603811</v>
       </c>
       <c r="I17" t="n">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="J17" t="n">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="K17" t="n">
-        <v>107.469817119167</v>
+        <v>158.3753093011078</v>
       </c>
       <c r="L17" t="n">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="M17" t="n">
-        <v>3543.7043607936</v>
+        <v>1111.763801182863</v>
       </c>
       <c r="N17" t="n">
-        <v>59.52902116441694</v>
+        <v>33.34312224706714</v>
       </c>
       <c r="O17" t="n">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="P17" t="n">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="Q17" t="n">
-        <v>181.1311715253653</v>
+        <v>180.6590915153517</v>
       </c>
       <c r="R17" t="n">
         <v>183</v>
       </c>
       <c r="S17" t="n">
-        <v>662.8515055438635</v>
+        <v>628.360796378245</v>
       </c>
       <c r="T17" t="n">
-        <v>25.74590269429028</v>
+        <v>25.06712581007733</v>
       </c>
       <c r="U17" t="n">
         <v>168</v>
@@ -1681,52 +1681,52 @@
         <v>1032.073478888538</v>
       </c>
       <c r="E18" t="n">
-        <v>18.655409892252</v>
+        <v>112.6147733575635</v>
       </c>
       <c r="F18" t="n">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="G18" t="n">
-        <v>89.61082195299598</v>
+        <v>1182.599243146364</v>
       </c>
       <c r="H18" t="n">
-        <v>9.466299274425882</v>
+        <v>34.38894070986142</v>
       </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="J18" t="n">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="K18" t="n">
-        <v>104.6415349417637</v>
+        <v>165.013760212554</v>
       </c>
       <c r="L18" t="n">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="M18" t="n">
-        <v>3248.5735245393</v>
+        <v>1159.837113878072</v>
       </c>
       <c r="N18" t="n">
-        <v>56.99625886441407</v>
+        <v>34.05638139729574</v>
       </c>
       <c r="O18" t="n">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="P18" t="n">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="Q18" t="n">
-        <v>185.27945432216</v>
+        <v>184.8498669757745</v>
       </c>
       <c r="R18" t="n">
         <v>182</v>
       </c>
       <c r="S18" t="n">
-        <v>652.6293607392677</v>
+        <v>619.0362798597049</v>
       </c>
       <c r="T18" t="n">
-        <v>25.54661153145888</v>
+        <v>24.88043970390606</v>
       </c>
       <c r="U18" t="n">
         <v>171</v>
@@ -1751,61 +1751,61 @@
         <v>1358.329314763195</v>
       </c>
       <c r="E19" t="n">
-        <v>20.75846918699779</v>
+        <v>115.1163070609673</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="G19" t="n">
-        <v>51.10985919782473</v>
+        <v>1209.673908232743</v>
       </c>
       <c r="H19" t="n">
-        <v>7.149115973169321</v>
+        <v>34.7803667064156</v>
       </c>
       <c r="I19" t="n">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="J19" t="n">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="K19" t="n">
-        <v>104.0138453027394</v>
+        <v>168.768632819184</v>
       </c>
       <c r="L19" t="n">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="M19" t="n">
-        <v>1999.397456137359</v>
+        <v>832.1238629551829</v>
       </c>
       <c r="N19" t="n">
-        <v>44.71462239734736</v>
+        <v>28.8465572114799</v>
       </c>
       <c r="O19" t="n">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="P19" t="n">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="Q19" t="n">
-        <v>188.8453219770713</v>
+        <v>188.3408100459909</v>
       </c>
       <c r="R19" t="n">
         <v>193</v>
       </c>
       <c r="S19" t="n">
-        <v>540.0314234532292</v>
+        <v>517.9597164015154</v>
       </c>
       <c r="T19" t="n">
-        <v>23.23857619246991</v>
+        <v>22.75872835642438</v>
       </c>
       <c r="U19" t="n">
         <v>178</v>
       </c>
       <c r="V19" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>